--- a/data/filtered_amazon.xlsx
+++ b/data/filtered_amazon.xlsx
@@ -1740,7 +1740,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2300,7 +2300,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>Books</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">

--- a/data/filtered_amazon.xlsx
+++ b/data/filtered_amazon.xlsx
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="I7" t="n">
         <v>8</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>429</v>
+        <v>429.7435897435897</v>
       </c>
     </row>
     <row r="17">
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>450</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36">
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1006</v>
+        <v>764</v>
       </c>
       <c r="F38" t="n">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>429</v>
+        <v>429.7435897435897</v>
       </c>
     </row>
     <row r="40">
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="I42" t="n">
         <v>12</v>
@@ -3896,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="I62" t="n">
         <v>5</v>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>450</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76">
@@ -5016,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="I82" t="n">
         <v>12</v>
@@ -5800,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="H96" t="n">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="I96" t="n">
         <v>20</v>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1300</v>
+        <v>954</v>
       </c>
       <c r="F101" t="n">
         <v>4</v>
@@ -6089,7 +6089,7 @@
         <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>78000</v>
+        <v>27880</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>45</v>
       </c>
       <c r="K111" t="n">
-        <v>56250</v>
+        <v>27880</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="I116" t="n">
         <v>18</v>

--- a/data/filtered_amazon.xlsx
+++ b/data/filtered_amazon.xlsx
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>429.7435897435897</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>429.7435897435897</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40">
